--- a/10_Servicios/Servicios_Informacion.xlsx
+++ b/10_Servicios/Servicios_Informacion.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://salesbridge-my.sharepoint.com/personal/quesadawillie_la-bridgestone_com/Documents/Desktop/Proyecto/10_Servicios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="11_F25DC773A252ABDACC1048EC39585BBC5BDE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{928F7E00-8D2D-4E4E-9C62-010D7F4BA683}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="11_F25DC773A252ABDACC1048EC39585BBC5BDE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B79A52D-72DA-49EF-A2D4-D1339A177A62}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Servicio</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>Descripcion_Ingles</t>
+  </si>
+  <si>
+    <t>Desplegar</t>
+  </si>
+  <si>
+    <t>Piscinas</t>
   </si>
 </sst>
 </file>
@@ -158,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -169,11 +175,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -197,7 +206,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -218,6 +230,9 @@
       </font>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -232,10 +247,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4AC0B79E-768C-41BC-A77A-A91F02E9EC9A}" name="Table1" displayName="Table1" ref="A1:E6" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="A1:E6" xr:uid="{4AC0B79E-768C-41BC-A77A-A91F02E9EC9A}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{4BE87D45-AA46-4B0A-8190-615C34E05ABA}" name="Servicio" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4AC0B79E-768C-41BC-A77A-A91F02E9EC9A}" name="Table1" displayName="Table1" ref="A1:F7" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:F7" xr:uid="{4AC0B79E-768C-41BC-A77A-A91F02E9EC9A}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{4BE87D45-AA46-4B0A-8190-615C34E05ABA}" name="Desplegar" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{02306ED8-723C-45CE-AA19-F68645A5F206}" name="Servicio" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{EE2ACE68-0ADF-4875-96EF-E578CAD2DEC7}" name="Descripcion" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{5AF61865-1915-4B11-BDC2-2B1837A0160A}" name="Servicio_Ingles"/>
     <tableColumn id="4" xr3:uid="{2C51FFE6-E4D8-4DC9-BEE7-B739C3887AE6}" name="Descripcion_Ingles"/>
@@ -508,118 +524,146 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.88671875" customWidth="1"/>
-    <col min="2" max="4" width="51.109375" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.88671875" customWidth="1"/>
+    <col min="3" max="3" width="62.88671875" customWidth="1"/>
+    <col min="4" max="5" width="51.109375" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:6" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/10_Servicios/Servicios_Informacion.xlsx
+++ b/10_Servicios/Servicios_Informacion.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://salesbridge-my.sharepoint.com/personal/quesadawillie_la-bridgestone_com/Documents/Desktop/Proyecto/10_Servicios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="95" documentId="11_F25DC773A252ABDACC1048EC39585BBC5BDE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B79A52D-72DA-49EF-A2D4-D1339A177A62}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="11_F25DC773A252ABDACC1048EC39585BBC5BDE58F6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DB28792-04F6-40F8-9C56-3A00198C5B61}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>Servicio</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Piscinas</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -527,7 +530,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -650,7 +653,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
+      <c r="A7" s="4" t="s">
+        <v>32</v>
+      </c>
       <c r="B7" s="3" t="s">
         <v>31</v>
       </c>
